--- a/foundPath/20000pathNodes.xlsx
+++ b/foundPath/20000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -78,7 +78,7 @@
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="true"/>
     <col min="2" max="2" width="5.140625" customWidth="true"/>
-    <col min="3" max="3" width="8.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -98,7 +98,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B2" s="0">
         <v>630</v>
@@ -115,7 +115,7 @@
         <v>890</v>
       </c>
       <c r="B3" s="0">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="C3" s="0">
         <v>8</v>
@@ -129,27 +129,27 @@
         <v>890</v>
       </c>
       <c r="B4" s="0">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C4" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0">
-        <v>4.1269841269841274</v>
+        <v>4.4444444444444446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="C5" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0">
-        <v>5.6176961119839861</v>
+        <v>6.0444444444444443</v>
       </c>
     </row>
     <row r="6">
@@ -157,13 +157,13 @@
         <v>890</v>
       </c>
       <c r="B6" s="0">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C6" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="0">
-        <v>7.679248924792816</v>
+        <v>7.2209150326797387</v>
       </c>
     </row>
     <row r="7">
@@ -174,10 +174,10 @@
         <v>720</v>
       </c>
       <c r="C7" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0">
-        <v>8.1047808396864323</v>
+        <v>8.1965247887772996</v>
       </c>
     </row>
     <row r="8">
@@ -185,27 +185,27 @@
         <v>900</v>
       </c>
       <c r="B8" s="0">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="C8" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0">
-        <v>10.14438864512355</v>
+        <v>8.8114002506786449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="B9" s="0">
-        <v>830</v>
+        <v>740</v>
       </c>
       <c r="C9" s="0">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0">
-        <v>12.27869128733345</v>
+        <v>9.2195635159847669</v>
       </c>
     </row>
     <row r="10">
@@ -213,13 +213,13 @@
         <v>910</v>
       </c>
       <c r="B10" s="0">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="C10" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0">
-        <v>12.59615160479377</v>
+        <v>10.83646768289365</v>
       </c>
     </row>
     <row r="11">
@@ -227,447 +227,447 @@
         <v>910</v>
       </c>
       <c r="B11" s="0">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="C11" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0">
-        <v>13.86599287463504</v>
+        <v>12.905433200135031</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="B12" s="0">
-        <v>920</v>
+        <v>850</v>
       </c>
       <c r="C12" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" s="0">
-        <v>15.33226695824146</v>
+        <v>13.213125507827341</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
+        <v>910</v>
+      </c>
+      <c r="B13" s="0">
         <v>870</v>
       </c>
-      <c r="B13" s="0">
-        <v>970</v>
-      </c>
       <c r="C13" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" s="0">
-        <v>17.06941689602678</v>
+        <v>13.801360801944989</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>850</v>
+        <v>910</v>
       </c>
       <c r="B14" s="0">
-        <v>990</v>
+        <v>930</v>
       </c>
       <c r="C14" s="0">
         <v>30</v>
       </c>
       <c r="D14" s="0">
-        <v>17.9818127427191</v>
+        <v>15.647514648098831</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="B15" s="0">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="C15" s="0">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15" s="0">
-        <v>19.01862509031529</v>
+        <v>17.60575639614774</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>780</v>
+        <v>850</v>
       </c>
       <c r="B16" s="0">
-        <v>950</v>
+        <v>1010</v>
       </c>
       <c r="C16" s="0">
-        <v>32</v>
+        <v>21.15849451705736</v>
       </c>
       <c r="D16" s="0">
-        <v>21.051362943468579</v>
+        <v>19.77220486996108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="B17" s="0">
-        <v>890</v>
+        <v>1020</v>
       </c>
       <c r="C17" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="0">
-        <v>23.304832490633569</v>
+        <v>20.700833557349881</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>700</v>
+        <v>820</v>
       </c>
       <c r="B18" s="0">
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="C18" s="0">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D18" s="0">
-        <v>25.275024563689829</v>
+        <v>21.092990420094971</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>630</v>
+        <v>810</v>
       </c>
       <c r="B19" s="0">
-        <v>860</v>
+        <v>1010</v>
       </c>
       <c r="C19" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0">
-        <v>27.385201343191429</v>
+        <v>21.658675845044211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>570</v>
+        <v>810</v>
       </c>
       <c r="B20" s="0">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="0">
-        <v>29.245364672702241</v>
+        <v>22.03603433561025</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="B21" s="0">
-        <v>890</v>
+        <v>940</v>
       </c>
       <c r="C21" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="0">
-        <v>30.233576441504859</v>
+        <v>24.03603433561025</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>470</v>
+        <v>780</v>
       </c>
       <c r="B22" s="0">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="C22" s="0">
-        <v>36</v>
+        <v>26.30755934135615</v>
       </c>
       <c r="D22" s="0">
-        <v>32.29239997091662</v>
+        <v>26.604264487193401</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="B23" s="0">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="C23" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" s="0">
-        <v>32.847955526472177</v>
+        <v>28.604331703421249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>420</v>
+        <v>740</v>
       </c>
       <c r="B24" s="0">
         <v>820</v>
       </c>
       <c r="C24" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D24" s="0">
-        <v>34.934468706160921</v>
+        <v>28.912024011113559</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>440</v>
+        <v>730</v>
       </c>
       <c r="B25" s="0">
-        <v>750</v>
+        <v>820</v>
       </c>
       <c r="C25" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="0">
-        <v>36.956721453183278</v>
+        <v>29.21053147380012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>460</v>
+        <v>670</v>
       </c>
       <c r="B26" s="0">
-        <v>680</v>
+        <v>810</v>
       </c>
       <c r="C26" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D26" s="0">
-        <v>39.036752850120578</v>
+        <v>31.082150713891881</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="B27" s="0">
-        <v>610</v>
+        <v>820</v>
       </c>
       <c r="C27" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D27" s="0">
-        <v>41.27668611655114</v>
+        <v>33.144104113992967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="B28" s="0">
-        <v>600</v>
+        <v>870</v>
       </c>
       <c r="C28" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="0">
-        <v>41.698839418752073</v>
+        <v>35.314654702953263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B29" s="0">
-        <v>530</v>
+        <v>900</v>
       </c>
       <c r="C29" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D29" s="0">
-        <v>43.938772685182627</v>
+        <v>37.514065828362888</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="B30" s="0">
-        <v>490</v>
+        <v>900</v>
       </c>
       <c r="C30" s="0">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D30" s="0">
-        <v>45.314814517490191</v>
+        <v>38.995547309844369</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>550</v>
+        <v>430</v>
       </c>
       <c r="B31" s="0">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C31" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="0">
-        <v>46.92771774329664</v>
+        <v>40.683145783429119</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>520</v>
+        <v>420</v>
       </c>
       <c r="B32" s="0">
-        <v>430</v>
+        <v>860</v>
       </c>
       <c r="C32" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="0">
-        <v>47.915929512099261</v>
+        <v>41.42850177592905</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="B33" s="0">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="C33" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0">
-        <v>49.656512167276958</v>
+        <v>42.127273018897732</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="B34" s="0">
-        <v>390</v>
+        <v>770</v>
       </c>
       <c r="C34" s="0">
         <v>36</v>
       </c>
       <c r="D34" s="0">
-        <v>51.39444431879074</v>
+        <v>44.334743484365532</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>340</v>
+        <v>440</v>
       </c>
       <c r="B35" s="0">
-        <v>380</v>
+        <v>690</v>
       </c>
       <c r="C35" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D35" s="0">
-        <v>53.444029191795217</v>
+        <v>46.588264611126093</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="B36" s="0">
-        <v>370</v>
+        <v>610</v>
       </c>
       <c r="C36" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D36" s="0">
-        <v>54.417037702616263</v>
+        <v>48.841785737886653</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="B37" s="0">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="C37" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="0">
-        <v>55.887625937910379</v>
+        <v>50.981580169641902</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>330</v>
+        <v>510</v>
       </c>
       <c r="B38" s="0">
-        <v>280</v>
+        <v>550</v>
       </c>
       <c r="C38" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0">
-        <v>57.129885925410257</v>
+        <v>51.358703786274717</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>380</v>
+        <v>530</v>
       </c>
       <c r="B39" s="0">
-        <v>230</v>
+        <v>520</v>
       </c>
       <c r="C39" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="0">
-        <v>59.094071428706229</v>
+        <v>52.360245807236943</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="B40" s="0">
-        <v>190</v>
+        <v>490</v>
       </c>
       <c r="C40" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="0">
-        <v>61.273060009327459</v>
+        <v>53.251028246720992</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
+        <v>550</v>
+      </c>
+      <c r="B41" s="0">
         <v>470</v>
       </c>
-      <c r="B41" s="0">
-        <v>190</v>
-      </c>
       <c r="C41" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" s="0">
-        <v>61.80639334266079</v>
+        <v>53.847313040720927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B42" s="0">
-        <v>190</v>
+        <v>460</v>
       </c>
       <c r="C42" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D42" s="0">
-        <v>62.639726675994133</v>
+        <v>54.107053300461203</v>
       </c>
     </row>
     <row r="43">
@@ -675,167 +675,461 @@
         <v>550</v>
       </c>
       <c r="B43" s="0">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="C43" s="0">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D43" s="0">
-        <v>64.161822053186</v>
+        <v>55.357053300461203</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="B44" s="0">
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="C44" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D44" s="0">
-        <v>65.706979481547449</v>
+        <v>55.772998465865051</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>670</v>
+        <v>530</v>
       </c>
       <c r="B45" s="0">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C45" s="0">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D45" s="0">
-        <v>67.756564354551941</v>
+        <v>56.136634829501418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>700</v>
+        <v>490</v>
       </c>
       <c r="B46" s="0">
-        <v>170</v>
+        <v>400</v>
       </c>
       <c r="C46" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="0">
-        <v>68.686646019307346</v>
+        <v>57.469968162834753</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>770</v>
+        <v>470</v>
       </c>
       <c r="B47" s="0">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C47" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D47" s="0">
-        <v>70.862359192189032</v>
+        <v>58.076028768895362</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>830</v>
+        <v>400</v>
       </c>
       <c r="B48" s="0">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="C48" s="0">
         <v>33</v>
       </c>
       <c r="D48" s="0">
-        <v>72.926421940650371</v>
+        <v>60.165581007701327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>880</v>
+        <v>390</v>
       </c>
       <c r="B49" s="0">
-        <v>270</v>
+        <v>400</v>
       </c>
       <c r="C49" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D49" s="0">
-        <v>75.126492271891678</v>
+        <v>60.4640884703879</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>920</v>
+        <v>340</v>
       </c>
       <c r="B50" s="0">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="C50" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D50" s="0">
-        <v>76.676315353944389</v>
+        <v>62.033017551493373</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>920</v>
+        <v>290</v>
       </c>
       <c r="B51" s="0">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C51" s="0">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D51" s="0">
-        <v>78.366456199014806</v>
+        <v>64.04369061868141</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>930</v>
+        <v>290</v>
       </c>
       <c r="B52" s="0">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="C52" s="0">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D52" s="0">
-        <v>80.330641702310771</v>
+        <v>64.40732698231777</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>910</v>
+        <v>280</v>
       </c>
       <c r="B53" s="0">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="C53" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D53" s="0">
-        <v>81.608394832310651</v>
+        <v>65.829087542875584</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>890</v>
+        <v>280</v>
       </c>
       <c r="B54" s="0">
+        <v>280</v>
+      </c>
+      <c r="C54" s="0">
+        <v>31</v>
+      </c>
+      <c r="D54" s="0">
+        <v>66.812694100252628</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>300</v>
+      </c>
+      <c r="B55" s="0">
+        <v>230</v>
+      </c>
+      <c r="C55" s="0">
+        <v>26</v>
+      </c>
+      <c r="D55" s="0">
+        <v>68.702225611527894</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>330</v>
+      </c>
+      <c r="B56" s="0">
+        <v>190</v>
+      </c>
+      <c r="C56" s="0">
+        <v>28</v>
+      </c>
+      <c r="D56" s="0">
+        <v>70.554077463379741</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>390</v>
+      </c>
+      <c r="B57" s="0">
+        <v>160</v>
+      </c>
+      <c r="C57" s="0">
+        <v>24.175467587850619</v>
+      </c>
+      <c r="D57" s="0">
+        <v>73.125479021479592</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>410</v>
+      </c>
+      <c r="B58" s="0">
+        <v>150</v>
+      </c>
+      <c r="C58" s="0">
+        <v>32</v>
+      </c>
+      <c r="D58" s="0">
+        <v>73.921580264073754</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>470</v>
+      </c>
+      <c r="B59" s="0">
+        <v>130</v>
+      </c>
+      <c r="C59" s="0">
+        <v>35.850935175701203</v>
+      </c>
+      <c r="D59" s="0">
+        <v>75.78583027152294</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>530</v>
+      </c>
+      <c r="B60" s="0">
+        <v>110</v>
+      </c>
+      <c r="C60" s="0">
+        <v>35</v>
+      </c>
+      <c r="D60" s="0">
+        <v>77.571143423608419</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>590</v>
+      </c>
+      <c r="B61" s="0">
+        <v>100</v>
+      </c>
+      <c r="C61" s="0">
+        <v>32.341505482942637</v>
+      </c>
+      <c r="D61" s="0">
+        <v>79.377685313836565</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>660</v>
+      </c>
+      <c r="B62" s="0">
+        <v>120</v>
+      </c>
+      <c r="C62" s="0">
+        <v>24.90844519766598</v>
+      </c>
+      <c r="D62" s="0">
+        <v>81.920957335115844</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>720</v>
+      </c>
+      <c r="B63" s="0">
+        <v>130</v>
+      </c>
+      <c r="C63" s="0">
+        <v>32</v>
+      </c>
+      <c r="D63" s="0">
+        <v>84.058693662007343</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>790</v>
+      </c>
+      <c r="B64" s="0">
+        <v>140</v>
+      </c>
+      <c r="C64" s="0">
+        <v>34</v>
+      </c>
+      <c r="D64" s="0">
+        <v>86.201441483784762</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>830</v>
+      </c>
+      <c r="B65" s="0">
+        <v>200</v>
+      </c>
+      <c r="C65" s="0">
+        <v>30</v>
+      </c>
+      <c r="D65" s="0">
+        <v>88.454911030949759</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>840</v>
+      </c>
+      <c r="B66" s="0">
+        <v>220</v>
+      </c>
+      <c r="C66" s="0">
+        <v>32</v>
+      </c>
+      <c r="D66" s="0">
+        <v>89.176223281756137</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>870</v>
+      </c>
+      <c r="B67" s="0">
+        <v>280</v>
+      </c>
+      <c r="C67" s="0">
+        <v>38</v>
+      </c>
+      <c r="D67" s="0">
+        <v>91.09285297675595</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>870</v>
+      </c>
+      <c r="B68" s="0">
+        <v>290</v>
+      </c>
+      <c r="C68" s="0">
+        <v>39</v>
+      </c>
+      <c r="D68" s="0">
+        <v>91.352593236496205</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>870</v>
+      </c>
+      <c r="B69" s="0">
+        <v>310</v>
+      </c>
+      <c r="C69" s="0">
+        <v>41</v>
+      </c>
+      <c r="D69" s="0">
+        <v>91.852593236496205</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>870</v>
+      </c>
+      <c r="B70" s="0">
+        <v>330</v>
+      </c>
+      <c r="C70" s="0">
+        <v>41</v>
+      </c>
+      <c r="D70" s="0">
+        <v>92.340398114544982</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>870</v>
+      </c>
+      <c r="B71" s="0">
+        <v>370</v>
+      </c>
+      <c r="C71" s="0">
+        <v>41</v>
+      </c>
+      <c r="D71" s="0">
+        <v>93.316007870642537</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>870</v>
+      </c>
+      <c r="B72" s="0">
+        <v>390</v>
+      </c>
+      <c r="C72" s="0">
+        <v>41</v>
+      </c>
+      <c r="D72" s="0">
+        <v>93.803812748691314</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>870</v>
+      </c>
+      <c r="B73" s="0">
+        <v>410</v>
+      </c>
+      <c r="C73" s="0">
+        <v>41</v>
+      </c>
+      <c r="D73" s="0">
+        <v>94.291617626740091</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>870</v>
+      </c>
+      <c r="B74" s="0">
+        <v>430</v>
+      </c>
+      <c r="C74" s="0">
+        <v>41</v>
+      </c>
+      <c r="D74" s="0">
+        <v>94.779422504788869</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>880</v>
+      </c>
+      <c r="B75" s="0">
         <v>520</v>
       </c>
-      <c r="C54" s="0">
-        <v>32</v>
-      </c>
-      <c r="D54" s="0">
-        <v>82.963587545946893</v>
+      <c r="C75" s="0">
+        <v>36.984545227590402</v>
+      </c>
+      <c r="D75" s="0">
+        <v>97.101776276734356</v>
       </c>
     </row>
   </sheetData>

--- a/foundPath/20000pathNodes.xlsx
+++ b/foundPath/20000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -129,13 +129,13 @@
         <v>890</v>
       </c>
       <c r="B4" s="0">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C4" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0">
-        <v>4.4444444444444446</v>
+        <v>3.27485380116959</v>
       </c>
     </row>
     <row r="5">
@@ -143,13 +143,13 @@
         <v>890</v>
       </c>
       <c r="B5" s="0">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C5" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0">
-        <v>6.0444444444444443</v>
+        <v>4.7563352826510723</v>
       </c>
     </row>
     <row r="6">
@@ -157,13 +157,13 @@
         <v>890</v>
       </c>
       <c r="B6" s="0">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="C6" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0">
-        <v>7.2209150326797387</v>
+        <v>5.3445705767687191</v>
       </c>
     </row>
     <row r="7">
@@ -171,349 +171,349 @@
         <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="C7" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="0">
-        <v>8.1965247887772996</v>
+        <v>5.8708863662424031</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B8" s="0">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="C8" s="0">
         <v>24</v>
       </c>
       <c r="D8" s="0">
-        <v>8.8114002506786449</v>
+        <v>7.2345227298787664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="B9" s="0">
-        <v>740</v>
+        <v>790</v>
       </c>
       <c r="C9" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0">
-        <v>9.2195635159847669</v>
+        <v>9.7799772753333123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B10" s="0">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="C10" s="0">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0">
-        <v>10.83646768289365</v>
+        <v>11.01074650610254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B11" s="0">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C11" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="0">
-        <v>12.905433200135031</v>
+        <v>11.590456651030079</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B12" s="0">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="C12" s="0">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="0">
-        <v>13.213125507827341</v>
+        <v>12.78448650177635</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="B13" s="0">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="C13" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13" s="0">
-        <v>13.801360801944989</v>
+        <v>15.783108774952829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="B14" s="0">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="C14" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D14" s="0">
-        <v>15.647514648098831</v>
+        <v>16.490215556139379</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>890</v>
+        <v>830</v>
       </c>
       <c r="B15" s="0">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="C15" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="0">
-        <v>17.60575639614774</v>
+        <v>18.292991193871369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="B16" s="0">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="0">
-        <v>21.15849451705736</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0">
-        <v>19.77220486996108</v>
+        <v>18.819306983345051</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="B17" s="0">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="C17" s="0">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" s="0">
-        <v>20.700833557349881</v>
+        <v>20.216849469282419</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>820</v>
+        <v>760</v>
       </c>
       <c r="B18" s="0">
-        <v>1020</v>
+        <v>950</v>
       </c>
       <c r="C18" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="0">
-        <v>21.092990420094971</v>
+        <v>22.910589588088321</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="B19" s="0">
-        <v>1010</v>
+        <v>860</v>
       </c>
       <c r="C19" s="0">
-        <v>26</v>
+        <v>24.637491424671921</v>
       </c>
       <c r="D19" s="0">
-        <v>21.658675845044211</v>
+        <v>26.878903666466911</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="B20" s="0">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="C20" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20" s="0">
-        <v>22.03603433561025</v>
+        <v>28.0663831244139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>810</v>
+        <v>680</v>
       </c>
       <c r="B21" s="0">
-        <v>940</v>
+        <v>830</v>
       </c>
       <c r="C21" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D21" s="0">
-        <v>24.03603433561025</v>
+        <v>28.97906393155667</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>780</v>
+        <v>670</v>
       </c>
       <c r="B22" s="0">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="C22" s="0">
-        <v>26.30755934135615</v>
+        <v>20</v>
       </c>
       <c r="D22" s="0">
-        <v>26.604264487193401</v>
+        <v>29.413846540252319</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>750</v>
+        <v>590</v>
       </c>
       <c r="B23" s="0">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="C23" s="0">
-        <v>32</v>
+        <v>25.011964829212861</v>
       </c>
       <c r="D23" s="0">
-        <v>28.604331703421249</v>
+        <v>33.21017215178059</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="B24" s="0">
-        <v>820</v>
+        <v>870</v>
       </c>
       <c r="C24" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0">
-        <v>28.912024011113559</v>
+        <v>34.05378094262759</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>730</v>
+        <v>550</v>
       </c>
       <c r="B25" s="0">
-        <v>820</v>
+        <v>880</v>
       </c>
       <c r="C25" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" s="0">
-        <v>29.21053147380012</v>
+        <v>34.824838865903381</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>670</v>
+        <v>500</v>
       </c>
       <c r="B26" s="0">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="C26" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="0">
-        <v>31.082150713891881</v>
+        <v>36.681792247673897</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>610</v>
+        <v>490</v>
       </c>
       <c r="B27" s="0">
-        <v>820</v>
+        <v>900</v>
       </c>
       <c r="C27" s="0">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" s="0">
-        <v>33.144104113992967</v>
+        <v>37.098458914340561</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>570</v>
+        <v>440</v>
       </c>
       <c r="B28" s="0">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="C28" s="0">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28" s="0">
-        <v>35.314654702953263</v>
+        <v>39.546261099401697</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>510</v>
+        <v>430</v>
       </c>
       <c r="B29" s="0">
-        <v>900</v>
+        <v>870</v>
       </c>
       <c r="C29" s="0">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D29" s="0">
-        <v>37.514065828362888</v>
+        <v>40.148054104666841</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="B30" s="0">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="C30" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0">
-        <v>38.995547309844369</v>
+        <v>42.111437735913348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B31" s="0">
-        <v>880</v>
+        <v>820</v>
       </c>
       <c r="C31" s="0">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D31" s="0">
-        <v>40.683145783429119</v>
+        <v>42.611437735913348</v>
       </c>
     </row>
     <row r="32">
@@ -521,545 +521,545 @@
         <v>420</v>
       </c>
       <c r="B32" s="0">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="C32" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D32" s="0">
-        <v>41.42850177592905</v>
+        <v>43.076554014983117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="B33" s="0">
-        <v>840</v>
+        <v>710</v>
       </c>
       <c r="C33" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="0">
-        <v>42.127273018897732</v>
+        <v>46.924870629015409</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="B34" s="0">
-        <v>770</v>
+        <v>640</v>
       </c>
       <c r="C34" s="0">
-        <v>36</v>
+        <v>26.661706471060668</v>
       </c>
       <c r="D34" s="0">
-        <v>44.334743484365532</v>
+        <v>49.721269917803312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="B35" s="0">
-        <v>690</v>
+        <v>560</v>
       </c>
       <c r="C35" s="0">
         <v>35</v>
       </c>
       <c r="D35" s="0">
-        <v>46.588264611126093</v>
+        <v>52.622348211572863</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>440</v>
+        <v>560</v>
       </c>
       <c r="B36" s="0">
-        <v>610</v>
+        <v>460</v>
       </c>
       <c r="C36" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D36" s="0">
-        <v>48.841785737886653</v>
+        <v>55.790092215769633</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="B37" s="0">
-        <v>560</v>
+        <v>420</v>
       </c>
       <c r="C37" s="0">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D37" s="0">
-        <v>50.981580169641902</v>
+        <v>57.582746835603388</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>510</v>
+        <v>540</v>
       </c>
       <c r="B38" s="0">
-        <v>550</v>
+        <v>410</v>
       </c>
       <c r="C38" s="0">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D38" s="0">
-        <v>51.358703786274717</v>
+        <v>58.558066533791738</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B39" s="0">
-        <v>520</v>
+        <v>400</v>
       </c>
       <c r="C39" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D39" s="0">
-        <v>52.360245807236943</v>
+        <v>60.267405809558433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>540</v>
+        <v>480</v>
       </c>
       <c r="B40" s="0">
-        <v>490</v>
+        <v>400</v>
       </c>
       <c r="C40" s="0">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D40" s="0">
-        <v>53.251028246720992</v>
+        <v>61.600739142891769</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="B41" s="0">
-        <v>470</v>
+        <v>390</v>
       </c>
       <c r="C41" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D41" s="0">
-        <v>53.847313040720927</v>
+        <v>64.893606465850823</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="B42" s="0">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="C42" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D42" s="0">
-        <v>54.107053300461203</v>
+        <v>66.386143779283657</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="B43" s="0">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="C43" s="0">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D43" s="0">
-        <v>55.357053300461203</v>
+        <v>67.184739485533584</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>540</v>
+        <v>310</v>
       </c>
       <c r="B44" s="0">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C44" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D44" s="0">
-        <v>55.772998465865051</v>
+        <v>67.858174515235063</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="B45" s="0">
-        <v>400</v>
+        <v>330</v>
       </c>
       <c r="C45" s="0">
-        <v>28</v>
+        <v>16.917078252831711</v>
       </c>
       <c r="D45" s="0">
-        <v>56.136634829501418</v>
+        <v>69.977092897972412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>490</v>
+        <v>300</v>
       </c>
       <c r="B46" s="0">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="C46" s="0">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D46" s="0">
-        <v>57.469968162834753</v>
+        <v>70.533931064462834</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="B47" s="0">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C47" s="0">
-        <v>34</v>
+        <v>20.338293528939332</v>
       </c>
       <c r="D47" s="0">
-        <v>58.076028768895362</v>
+        <v>71.670771418686542</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="B48" s="0">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="C48" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D48" s="0">
-        <v>60.165581007701327</v>
+        <v>75.383607870754105</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="B49" s="0">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="C49" s="0">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D49" s="0">
-        <v>60.4640884703879</v>
+        <v>75.917273365989232</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="B50" s="0">
-        <v>390</v>
+        <v>210</v>
       </c>
       <c r="C50" s="0">
-        <v>31</v>
+        <v>25.879972911418498</v>
       </c>
       <c r="D50" s="0">
-        <v>62.033017551493373</v>
+        <v>76.76298786030091</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="B51" s="0">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="C51" s="0">
-        <v>27</v>
+        <v>27.784915217344111</v>
       </c>
       <c r="D51" s="0">
-        <v>64.04369061868141</v>
+        <v>80.653914264120203</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>290</v>
+        <v>570</v>
       </c>
       <c r="B52" s="0">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="C52" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D52" s="0">
-        <v>64.40732698231777</v>
+        <v>83.351001888645129</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>280</v>
+        <v>590</v>
       </c>
       <c r="B53" s="0">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="C53" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D53" s="0">
-        <v>65.829087542875584</v>
+        <v>83.957062494705738</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>280</v>
+        <v>600</v>
       </c>
       <c r="B54" s="0">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="C54" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D54" s="0">
-        <v>66.812694100252628</v>
+        <v>84.246917567169504</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>300</v>
+        <v>620</v>
       </c>
       <c r="B55" s="0">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="C55" s="0">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D55" s="0">
-        <v>68.702225611527894</v>
+        <v>84.802473122725061</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>330</v>
+        <v>710</v>
       </c>
       <c r="B56" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D56" s="0">
-        <v>70.554077463379741</v>
+        <v>87.302473122725061</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>390</v>
+        <v>810</v>
       </c>
       <c r="B57" s="0">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C57" s="0">
-        <v>24.175467587850619</v>
+        <v>26</v>
       </c>
       <c r="D57" s="0">
-        <v>73.125479021479592</v>
+        <v>90.725524437121962</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>410</v>
+        <v>840</v>
       </c>
       <c r="B58" s="0">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="C58" s="0">
-        <v>32</v>
+        <v>24.541242364689118</v>
       </c>
       <c r="D58" s="0">
-        <v>73.921580264073754</v>
+        <v>92.152300316293079</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>470</v>
+        <v>870</v>
       </c>
       <c r="B59" s="0">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="C59" s="0">
-        <v>35.850935175701203</v>
+        <v>24</v>
       </c>
       <c r="D59" s="0">
-        <v>75.78583027152294</v>
+        <v>94.212404160539634</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>530</v>
+        <v>890</v>
       </c>
       <c r="B60" s="0">
-        <v>110</v>
+        <v>310</v>
       </c>
       <c r="C60" s="0">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D60" s="0">
-        <v>77.571143423608419</v>
+        <v>96.244541823609254</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>590</v>
+        <v>900</v>
       </c>
       <c r="B61" s="0">
-        <v>100</v>
+        <v>380</v>
       </c>
       <c r="C61" s="0">
-        <v>32.341505482942637</v>
+        <v>30</v>
       </c>
       <c r="D61" s="0">
-        <v>79.377685313836565</v>
+        <v>98.641513963224668</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>660</v>
+        <v>900</v>
       </c>
       <c r="B62" s="0">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="C62" s="0">
-        <v>24.90844519766598</v>
+        <v>31</v>
       </c>
       <c r="D62" s="0">
-        <v>81.920957335115844</v>
+        <v>98.969382815683687</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="B63" s="0">
-        <v>130</v>
+        <v>410</v>
       </c>
       <c r="C63" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" s="0">
-        <v>84.058693662007343</v>
+        <v>99.594382815683687</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>790</v>
+        <v>900</v>
       </c>
       <c r="B64" s="0">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="C64" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" s="0">
-        <v>86.201441483784762</v>
+        <v>100.1826181098013</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>830</v>
+        <v>900</v>
       </c>
       <c r="B65" s="0">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="C65" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D65" s="0">
-        <v>88.454911030949759</v>
+        <v>102.5826181098013</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="B66" s="0">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="C66" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D66" s="0">
-        <v>89.176223281756137</v>
+        <v>111.360026054925</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="B67" s="0">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="C67" s="0">
-        <v>38</v>
+        <v>27.439894486170861</v>
       </c>
       <c r="D67" s="0">
-        <v>91.09285297675595</v>
+        <v>112.5008210327932</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>870</v>
+        <v>920</v>
       </c>
       <c r="B68" s="0">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="C68" s="0">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D68" s="0">
-        <v>91.352593236496205</v>
+        <v>114.9628965206122</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>870</v>
+        <v>920</v>
       </c>
       <c r="B69" s="0">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="C69" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D69" s="0">
-        <v>91.852593236496205</v>
+        <v>116.2327377904534</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="B70" s="0">
-        <v>330</v>
+        <v>520</v>
       </c>
       <c r="C70" s="0">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D70" s="0">
-        <v>92.340398114544982</v>
+        <v>118.9814748741985</v>
       </c>
     </row>
     <row r="71">

--- a/foundPath/20000pathNodes.xlsx
+++ b/foundPath/20000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -983,13 +983,13 @@
         <v>900</v>
       </c>
       <c r="B65" s="0">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C65" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D65" s="0">
-        <v>102.5826181098013</v>
+        <v>102.81419705716981</v>
       </c>
     </row>
     <row r="66">
